--- a/restaurants.xlsx
+++ b/restaurants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KESB3\Documents\Projekte\2304_GrubGuide\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KESB3\Documents\Projekte\GrubGuide\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EE94E4-8B14-49D9-B0C1-E6B4754932BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B033C7D1-9E9C-4774-8BA6-4708F7FE1653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{17CD23F7-8C44-44A0-8BDA-755DD3A54001}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{17CD23F7-8C44-44A0-8BDA-755DD3A54001}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="220">
   <si>
     <t>Name</t>
   </si>
@@ -684,6 +684,21 @@
   </si>
   <si>
     <t>08:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Bori</t>
+  </si>
+  <si>
+    <t>Koreanisch</t>
+  </si>
+  <si>
+    <t>Solothurnerstrasse 37, 4053 Basel</t>
+  </si>
+  <si>
+    <t>https://www.restaurant-bori.ch/</t>
+  </si>
+  <si>
+    <t>assets/food/bori.jpg</t>
   </si>
 </sst>
 </file>
@@ -745,10 +760,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
@@ -759,14 +773,13 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Link" xfId="2" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Währung" xfId="1" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -782,7 +795,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1078,14 +1091,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A5FE6-BF06-43B7-BCB2-660156C4D815}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="X31" sqref="X31"/>
+      <selection pane="topRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
@@ -1206,11 +1219,11 @@
         <v>20</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J31" si="0">2*H2+I2</f>
+        <f t="shared" ref="J2:J32" si="0">2*H2+I2</f>
         <v>20</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K31" si="1">2*H2/3+I2</f>
+        <f t="shared" ref="K2:K32" si="1">2*H2/3+I2</f>
         <v>20</v>
       </c>
       <c r="L2">
@@ -3259,6 +3272,76 @@
         <v>214</v>
       </c>
       <c r="W31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="1">
+        <v>21</v>
+      </c>
+      <c r="G32" s="1">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>30</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="1"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>195</v>
+      </c>
+      <c r="R32" t="s">
+        <v>195</v>
+      </c>
+      <c r="S32" t="s">
+        <v>196</v>
+      </c>
+      <c r="T32" t="s">
+        <v>195</v>
+      </c>
+      <c r="U32" t="s">
+        <v>195</v>
+      </c>
+      <c r="V32" t="s">
+        <v>196</v>
+      </c>
+      <c r="W32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3296,8 +3379,9 @@
     <hyperlink ref="E26" r:id="rId22" xr:uid="{235D8F58-3205-469B-8E89-8E7C48E17F34}"/>
     <hyperlink ref="E31" r:id="rId23" xr:uid="{E508D1D2-B86C-4698-95E4-4B54438F593F}"/>
     <hyperlink ref="E28" r:id="rId24" xr:uid="{22DC767B-E5E1-4869-B536-2D170AB4FCAE}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{2E25A376-CEC5-4497-AEBE-D4BD5DF4E03F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId26"/>
 </worksheet>
 </file>